--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -142,15 +142,15 @@
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>community</t>
   </si>
   <si>
@@ -169,16 +169,16 @@
     <t>gt</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>data</t>
@@ -1747,25 +1747,25 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6926406926406926</v>
+        <v>0.68</v>
       </c>
       <c r="L25">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1773,25 +1773,25 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>0.68</v>
+        <v>0.6703296703296703</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1799,25 +1799,25 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6703296703296703</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="M27">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1981,25 +1981,25 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5853658536585366</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L34">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2007,25 +2007,25 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5813953488372093</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2036,22 +2036,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2059,25 +2059,25 @@
         <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="M37">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="10:17">
